--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224207.5403229858</v>
+        <v>221726.6204975263</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1376,13 +1376,13 @@
         <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>85.41900355657562</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>77.26541407452628</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
         <v>267.6876178001939</v>
@@ -1433,7 +1433,7 @@
         <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1528,7 +1528,7 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>107.0733734269374</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
@@ -1537,13 +1537,13 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
@@ -1591,10 +1591,10 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>182.8769508022369</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>57.36820351377656</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>88.08694598537031</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,25 +1765,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>9.166859385896879</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>40.8355245995066</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1819,13 +1819,13 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
@@ -1850,13 +1850,13 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134331654</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1901,7 +1901,7 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>228.8399438175558</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
         <v>275.3456855116939</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2050,7 +2050,7 @@
         <v>15.03686946432828</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206866</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704501</v>
@@ -2065,7 +2065,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463757</v>
@@ -2090,10 +2090,10 @@
         <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>39.26680271678828</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
@@ -2138,7 +2138,7 @@
         <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644158</v>
+        <v>253.7856194870056</v>
       </c>
       <c r="W20" t="n">
         <v>275.3456855116939</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2257,7 @@
         <v>70.85973170860173</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.43656365929215</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257228</v>
+        <v>178.2734363206861</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704501</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245678</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290878</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124933</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085012</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>133.9254590121761</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330917</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860173</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411904</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432828</v>
+        <v>77.43656365929236</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
         <v>307.7079050020903</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8803261135846</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>90.95618068285771</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060959</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3721,13 +3721,13 @@
         <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.9983213925781</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>111.7690391349167</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>170.231873425326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420293</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>93.13769105450045</v>
+        <v>101.8902586125592</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1844.988457763171</v>
+        <v>1498.714766761813</v>
       </c>
       <c r="C11" t="n">
-        <v>1503.218008082483</v>
+        <v>1156.944317081125</v>
       </c>
       <c r="D11" t="n">
-        <v>1172.144376735456</v>
+        <v>825.8706857340985</v>
       </c>
       <c r="E11" t="n">
-        <v>813.5481913969359</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="F11" t="n">
-        <v>429.754353867052</v>
+        <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299113</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479259</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479259</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1844.988457763171</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064626</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.6248303362531</v>
+        <v>418.312637560937</v>
       </c>
       <c r="C13" t="n">
-        <v>548.8807146680699</v>
+        <v>310.1577149074648</v>
       </c>
       <c r="D13" t="n">
-        <v>425.9561425154579</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E13" t="n">
-        <v>305.2351161927885</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>185.5372359546019</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5372359546019</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
@@ -5203,7 +5203,7 @@
         <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636301</v>
+        <v>967.1670306535528</v>
       </c>
       <c r="X13" t="n">
-        <v>845.0812279067691</v>
+        <v>766.3695470152593</v>
       </c>
       <c r="Y13" t="n">
-        <v>845.0812279067691</v>
+        <v>572.7690351314529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.552971876556</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1196.782522195868</v>
+        <v>797.536544276727</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.782522195868</v>
+        <v>739.58886395978</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1863368573471</v>
+        <v>739.58886395978</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274632</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3236.629108492635</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>2932.758288408788</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2607.181700398398</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2260.908009397041</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y14" t="n">
-        <v>1897.960744680954</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609364</v>
+        <v>480.9510275436844</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3126375609364</v>
+        <v>339.2069118755012</v>
       </c>
       <c r="D16" t="n">
-        <v>418.3126375609364</v>
+        <v>216.282339722889</v>
       </c>
       <c r="E16" t="n">
-        <v>297.591611238267</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="F16" t="n">
-        <v>177.8937310000804</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G16" t="n">
-        <v>177.8937310000804</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991586</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1292.030523413537</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535526</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152589</v>
+        <v>829.0079369980069</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314525</v>
+        <v>635.4074251142005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.173786276205</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.85296954359</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2289711446367</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>629.8126900199868</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628264</v>
+        <v>293.4684854381762</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156192</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2748.580571016144</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2470.453615953827</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.629557900545</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.13192613253</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5622,22 +5622,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5698,19 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
         <v>822.279422545404</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1554.55302580711</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C20" t="n">
-        <v>1260.232209074495</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D20" t="n">
-        <v>976.6082106755418</v>
+        <v>941.0313189532728</v>
       </c>
       <c r="E20" t="n">
-        <v>665.4616582850949</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="F20" t="n">
-        <v>329.1174537032844</v>
+        <v>629.8847665628256</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156192</v>
@@ -5750,25 +5750,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.95981054705</v>
+        <v>2723.38291882478</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.255963762463</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.008797431449</v>
+        <v>2146.431905709181</v>
       </c>
       <c r="Y20" t="n">
-        <v>1866.511165663434</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5890,7 +5890,7 @@
         <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625796</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
         <v>326.0809636879836</v>
@@ -5899,25 +5899,25 @@
         <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803862</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1732.031612952114</v>
@@ -5966,73 +5966,73 @@
         <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349345</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531242</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059181</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248234</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248234</v>
       </c>
       <c r="J23" t="n">
-        <v>277.7692084607035</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>932.492540596003</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844412</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516336</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2253.645634821812</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2756.618105701149</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3151.392472058327</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567315</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124117</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859009</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451028</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932662</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796888</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734571</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681289</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913274</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094441</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248234</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138544</v>
+        <v>575.9874173775271</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937446</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892059</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9765962146098</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706851</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634</v>
+        <v>96.06173179633996</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248234</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6169,28 +6169,28 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1855.941435307789</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453176</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259232</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.1450609357029</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
@@ -6230,46 +6230,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302709</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,10 +6494,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6543,10 +6543,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,13 +6640,13 @@
         <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890157</v>
+        <v>924.7493799910144</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037424</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.684944709349</v>
+        <v>1909.315497911348</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768131</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647468</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,10 +6731,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6780,16 +6780,16 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,10 +6877,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
@@ -6898,10 +6898,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,13 +6935,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6962,13 +6962,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389148</v>
+        <v>402.2593958170926</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848513</v>
+        <v>331.9946474630291</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463591</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E37" t="n">
-        <v>471.2839237378094</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>423.0654108137425</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7126,19 +7126,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758176</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552289</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891715</v>
+        <v>934.0185561150364</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649977</v>
+        <v>706.0290052170191</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953111</v>
+        <v>485.236426073489</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,7 +7172,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7181,7 +7181,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7202,22 +7202,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5641013650709</v>
+        <v>543.5641013650708</v>
       </c>
       <c r="C40" t="n">
-        <v>473.2993530110074</v>
+        <v>473.2993530110072</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725151</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639653</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398984</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146174</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1068.726127978445</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>877.9803925153279</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>748.662276191154</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214672</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7491,49 +7491,49 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170928</v>
+        <v>543.5641013650711</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630292</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245368</v>
+        <v>379.2208771983801</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F43" t="n">
         <v>183.08927069192</v>
@@ -7570,16 +7570,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.60866391532</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484846</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046023</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>779.308957941485</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431759</v>
+        <v>748.6622761911542</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734892</v>
+        <v>626.5411316214675</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866005</v>
+        <v>453.7336441225992</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3136567325369</v>
+        <v>383.4688957685357</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2351809199101</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359733</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728562</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>658.8318189486822</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429968</v>
+        <v>536.7106743789955</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430635</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729006</v>
+        <v>184.4039433729014</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389601</v>
+        <v>191.4948909389612</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333064</v>
+        <v>181.0856325333076</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830238</v>
+        <v>179.355374883025</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383987</v>
+        <v>182.8301554383999</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586583</v>
+        <v>190.8908035586592</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266122</v>
+        <v>192.0103836266129</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875977</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.6031223372537</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672272</v>
+        <v>105.962971867228</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253591</v>
+        <v>104.10139812536</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677632</v>
+        <v>92.30246558677723</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.8829608359742</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.3113487798329</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615461</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.1755252564661</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085231</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140781</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530928</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.66901280726833</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4994347185269</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.740829702612245e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966302</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>402.5500016878923</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8883066283043</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>269.5912199285597</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>306.7361649918006</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.25330108456394</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271159</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292082</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.91255799967378</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>270.39469151978</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579949</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>135.9880793864052</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.3469566735459</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.99934372768776</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134027</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25.01703144686007</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>297.7596397309461</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.07135577741027191</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1122743.71731258</v>
+        <v>1122743.717312581</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925343.76836149</v>
+        <v>925343.7683614899</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>925343.7683614899</v>
+        <v>925343.7683614896</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.1693585193</v>
+        <v>409638.1693585191</v>
       </c>
       <c r="D2" t="n">
-        <v>409649.3349029732</v>
+        <v>409649.3349029733</v>
       </c>
       <c r="E2" t="n">
         <v>364770.0004524873</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.0004524873</v>
+        <v>364770.0004524872</v>
       </c>
       <c r="G2" t="n">
-        <v>397265.4106232685</v>
+        <v>397265.4106232686</v>
       </c>
       <c r="H2" t="n">
         <v>397265.4106232685</v>
@@ -26338,22 +26338,22 @@
         <v>410520.8849321415</v>
       </c>
       <c r="K2" t="n">
-        <v>410520.884932141</v>
+        <v>410520.8849321413</v>
       </c>
       <c r="L2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="N2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321417</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321418</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552319</v>
+        <v>59764.55367552178</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>1.285673079109983e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487392</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983371</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179713</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913874</v>
+        <v>439568.916991388</v>
       </c>
       <c r="E4" t="n">
         <v>41244.04987367443</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.04987367433</v>
+        <v>41244.04987367436</v>
       </c>
       <c r="G4" t="n">
         <v>78272.21023511662</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511662</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.8596205746</v>
+        <v>93189.85962057456</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.7509922607</v>
+        <v>93063.75099226074</v>
       </c>
       <c r="K4" t="n">
         <v>93063.75099226073</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.7509922607</v>
+        <v>93063.75099226067</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="N4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="O4" t="n">
+        <v>93403.78684820632</v>
+      </c>
+      <c r="P4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93403.78684820625</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93403.78684820628</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186633</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184207</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="P5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87140.16174359052</v>
+        <v>-87144.57532145875</v>
       </c>
       <c r="C6" t="n">
-        <v>-87140.16174359052</v>
+        <v>-87144.57532145875</v>
       </c>
       <c r="D6" t="n">
-        <v>-124833.0411958037</v>
+        <v>-124837.3989459486</v>
       </c>
       <c r="E6" t="n">
-        <v>-842282.5119496454</v>
+        <v>-842511.2663720446</v>
       </c>
       <c r="F6" t="n">
-        <v>246956.4602139864</v>
+        <v>246727.7057915882</v>
       </c>
       <c r="G6" t="n">
-        <v>200894.447968063</v>
+        <v>200828.1705965186</v>
       </c>
       <c r="H6" t="n">
-        <v>238474.557262937</v>
+        <v>238408.2798913927</v>
       </c>
       <c r="I6" t="n">
-        <v>208773.0291798915</v>
+        <v>208773.0291798914</v>
       </c>
       <c r="J6" t="n">
-        <v>202669.7592432777</v>
+        <v>202669.7592432774</v>
       </c>
       <c r="K6" t="n">
-        <v>228079.1922650742</v>
+        <v>228079.1922650745</v>
       </c>
       <c r="L6" t="n">
         <v>190499.0829702006</v>
       </c>
       <c r="M6" t="n">
-        <v>32430.40078496108</v>
+        <v>32430.40078496117</v>
       </c>
       <c r="N6" t="n">
-        <v>234598.5007776856</v>
+        <v>234598.5007776855</v>
       </c>
       <c r="O6" t="n">
-        <v>234598.5007776857</v>
+        <v>234598.5007776854</v>
       </c>
       <c r="P6" t="n">
         <v>234598.5007776855</v>
@@ -26695,7 +26695,7 @@
         <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571905</v>
@@ -26704,28 +26704,28 @@
         <v>73.89528320571905</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790689</v>
+        <v>69.78465283790524</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810297</v>
+        <v>917.2219352810293</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26917,10 +26917,10 @@
         <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790689</v>
+        <v>69.78465283790524</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873671</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.1145259275853</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780178</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036573</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672103</v>
+        <v>84.22861846672114</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987511</v>
+        <v>90.83829126987533</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519078</v>
+        <v>84.46220888519099</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990234</v>
+        <v>7.649035050990578</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317045</v>
+        <v>75.62456067317069</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712643</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28770,7 +28770,7 @@
         <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075531</v>
       </c>
       <c r="T19" t="n">
         <v>73.89528320571905</v>
@@ -28785,7 +28785,7 @@
         <v>73.89528320571905</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
         <v>73.89528320571905</v>
@@ -28819,7 +28819,7 @@
         <v>73.89528320571905</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075518</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075577</v>
       </c>
       <c r="T22" t="n">
         <v>73.89528320571905</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571905</v>
+        <v>11.49558901075497</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571905</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859188</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
-        <v>54.14548214544364</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371146</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371119</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,7 +30429,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -30438,16 +30438,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371118</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371115</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>55.47778196371191</v>
+        <v>46.72521440565316</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941334</v>
+        <v>0.2805413179413274</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366688</v>
+        <v>2.87309377236662</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993329</v>
+        <v>10.81556915993303</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362332</v>
+        <v>23.81059368362276</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208</v>
+        <v>35.68590767207915</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102711</v>
+        <v>44.27152403102606</v>
       </c>
       <c r="M8" t="n">
-        <v>49.2606006939663</v>
+        <v>49.26060069396514</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356712</v>
+        <v>50.05768871356594</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328798</v>
+        <v>47.26805598328686</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661129</v>
+        <v>40.34219219661033</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783726</v>
+        <v>30.29530624783654</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313234</v>
+        <v>17.62255356313192</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588155</v>
+        <v>6.392835282588004</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928819</v>
+        <v>1.228069619288161</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530672</v>
+        <v>0.02244330543530619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796488</v>
+        <v>0.1501028381796452</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840293</v>
+        <v>1.449677410840258</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694049</v>
+        <v>5.168014384693927</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906936</v>
+        <v>14.18142647906903</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710583</v>
+        <v>24.23831663710526</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264699</v>
+        <v>32.59140791264622</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665925</v>
+        <v>38.03263579665835</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655699</v>
+        <v>39.03924649655607</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847109</v>
+        <v>35.71328360847024</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449803</v>
+        <v>28.66305863449735</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447587</v>
+        <v>19.16049562447542</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768022</v>
+        <v>9.319542882767802</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608825</v>
+        <v>2.78809438460876</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890228</v>
+        <v>0.6050197731890085</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345318</v>
+        <v>0.009875186722345086</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486845</v>
+        <v>0.1258411772486816</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811032</v>
+        <v>1.118842466811006</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078624</v>
+        <v>3.784387403078534</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481997</v>
+        <v>8.896971231481787</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489262</v>
+        <v>14.62045677489227</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477261</v>
+        <v>18.70915102477217</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908243</v>
+        <v>19.72617653908197</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115553</v>
+        <v>19.25713215115508</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875043</v>
+        <v>17.78707839875002</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287726</v>
+        <v>15.2199183828769</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852394</v>
+        <v>10.53748257852369</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338176</v>
+        <v>5.658276933381626</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233893</v>
+        <v>2.193068516233841</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625611</v>
+        <v>0.5376850300625484</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356462</v>
+        <v>0.006864064213564457</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573247</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>206.4560137759809</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36367,7 +36367,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>679.8012701314384</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36598,16 +36598,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889624</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>858.1401160802245</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629122</v>
@@ -37002,13 +37002,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637016</v>
+        <v>281.9322077637023</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>740.1901420412158</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,10 +37236,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
